--- a/restaurantList.xlsx
+++ b/restaurantList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmdej\Downloads\2021년 2학기\SW융합캡스톤디자인2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmdej\JNU-guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686405F1-7D12-466B-A1D1-1EBB5B1CE590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193825C2-F7AC-4B22-A4FF-34AF6BDD1E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B66E745-CB7F-4C45-B51E-757C9B6B067B}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
   <si>
     <t>식당 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,23 +236,6 @@
   </si>
   <si>
     <t>064-726-9289</t>
-  </si>
-  <si>
-    <r>
-      <t>푸라닭치킨 제주대점</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
   </si>
   <si>
     <t>064-702-1588</t>
@@ -456,8 +439,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>꽁양꽁양</t>
+    <t>메가커피 제주대점</t>
+  </si>
+  <si>
+    <t>064-702-1494</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 08:00 ~ 20:00</t>
+  </si>
+  <si>
+    <t>푸라닭치킨 제주대점 </t>
+  </si>
+  <si>
+    <t>꽁양꽁양 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>써브웨이 제주대점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>064-752-7739</t>
+  </si>
+  <si>
+    <t>맘스터치 제주대점</t>
+  </si>
+  <si>
+    <t>064-726-9299</t>
+  </si>
+  <si>
+    <t>11:00~17:00</t>
+  </si>
+  <si>
+    <t>신전떡볶이 제주대점</t>
+  </si>
+  <si>
+    <t>064-723-4448</t>
+  </si>
+  <si>
+    <r>
+      <t>봉구스밥버거 제주대점</t>
     </r>
     <r>
       <rPr>
@@ -471,24 +493,398 @@
       </rPr>
       <t> </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메가커피 제주대점</t>
-  </si>
-  <si>
-    <t>064-702-1494</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매일 08:00 ~ 20:00</t>
+  </si>
+  <si>
+    <t>064-752-0809</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 09:00 ~ 20:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 09:00 ~ 14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공휴일 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>09:00 ~ 14:00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이브엠커피</t>
+  </si>
+  <si>
+    <t>010-9388-0844</t>
+  </si>
+  <si>
+    <r>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>09:00 ~ 18:00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토,일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위드미트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-6683-3835</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한솥도시락</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제주대정문점</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>064-753-6700</t>
+  </si>
+  <si>
+    <t>(평일)07:00~21:00 (주말) 07:00~21:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서유기</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마라탕</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>훠궈</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제주대점</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>064-723-5688</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF424242"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF424242"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 08:00 - 21:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF424242"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문마감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF424242"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 20:30 / 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF424242"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>층</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF424242"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 19:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF424242"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마감</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 10:00 - 22:00 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삐삐네정식</t>
+  </si>
+  <si>
+    <t>064-757-4704</t>
+  </si>
+  <si>
+    <t>월~토 10:30 ~ 20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오니기리와이규동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제주대점</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>064-757-0290</t>
+  </si>
+  <si>
+    <t>매일 10:00 - 21:30 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +925,63 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="30"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="13"/>
       <color rgb="FF333333"/>
       <name val="맑은 고딕"/>
@@ -537,62 +990,89 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF424242"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92816D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF909090"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF424242"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="30"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <sz val="11"/>
+      <color rgb="FF424242"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -620,7 +1100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -630,25 +1110,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -966,13 +1476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9C2940-6895-42ED-AB7C-488B0DAFBD3B}">
-  <dimension ref="B2:G26"/>
+  <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="24.125" customWidth="1"/>
     <col min="3" max="3" width="17.375" customWidth="1"/>
@@ -982,7 +1492,7 @@
     <col min="7" max="7" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1002,13 +1512,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="45" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="2:7" ht="45">
+      <c r="B3" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
@@ -1027,8 +1537,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="5" spans="2:7">
+      <c r="B5" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C5" t="s">
@@ -1047,8 +1557,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="6" spans="2:7">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -1067,8 +1577,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="7" spans="2:7">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
@@ -1087,8 +1597,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="8" spans="2:7">
+      <c r="B8" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C8" t="s">
@@ -1098,8 +1608,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="9" spans="2:7">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
@@ -1118,8 +1628,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="10" spans="2:7">
+      <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C10" t="s">
@@ -1129,8 +1639,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="11" spans="2:7">
+      <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C11" t="s">
@@ -1140,67 +1650,67 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="12" spans="2:7">
+      <c r="B12" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="13" spans="2:7">
+      <c r="B13" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="2:7">
+      <c r="B14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" t="s">
         <v>54</v>
       </c>
-      <c r="G14" t="s">
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="6" t="s">
+    <row r="16" spans="2:7">
+      <c r="B16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="45">
+      <c r="B19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="45" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -1220,87 +1730,199 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
         <v>60</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="33">
+      <c r="B22" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="10" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="5" t="s">
+    </row>
+    <row r="24" spans="2:7" ht="19.5">
+      <c r="B24" s="11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="7" t="s">
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="E25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" t="s">
         <v>75</v>
       </c>
-      <c r="G25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>81</v>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="20.25">
+      <c r="B28" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="20.25">
+      <c r="B35" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" tooltip="푸라닭치킨 제주대점" display="https://place.map.kakao.com/1502959810" xr:uid="{050B80C9-C077-481B-BCED-3D9DC0B92F92}"/>
-    <hyperlink ref="B15" r:id="rId2" tooltip="꽁양꽁양" display="https://place.map.kakao.com/1524239383" xr:uid="{27B3886D-9316-4F65-A7F4-0D8C9DC72FEC}"/>
-    <hyperlink ref="B23" r:id="rId3" tooltip="김밥천국 제주대학점" display="https://place.map.kakao.com/8820356" xr:uid="{7D27848E-FF18-46C7-A331-90D35CD04F44}"/>
-    <hyperlink ref="B26" r:id="rId4" tooltip="메가커피 제주대점" display="https://place.map.kakao.com/1379218218" xr:uid="{BD22905E-4B5D-4E15-A97E-B4D5263DEAD5}"/>
+    <hyperlink ref="B29" r:id="rId1" tooltip="신전떡볶이 제주대점" display="https://place.map.kakao.com/603632383" xr:uid="{C471D7D2-2C08-4599-A137-CE99A64D37C8}"/>
+    <hyperlink ref="B30" r:id="rId2" tooltip="봉구스밥버거 제주대점" display="https://place.map.kakao.com/21688769" xr:uid="{A0F4C8E8-F211-4B98-A2AB-A59E96A37D40}"/>
+    <hyperlink ref="B31" r:id="rId3" tooltip="파이브엠커피" display="https://place.map.kakao.com/1253270915" xr:uid="{34D04368-7AC0-49DE-B4F7-B085076FDECE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>